--- a/evaluation/performance/results/rx.xlsx
+++ b/evaluation/performance/results/rx.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ Projects\heap-isolation\evaluation\performance\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A590FCEB-6D60-4FCC-982D-C811640C0F99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5C4B88-F9B5-4097-B082-9EDBC90ECAF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rx-scrabble" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -57,7 +66,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +77,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -94,10 +115,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,13 +401,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B80"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -395,635 +421,647 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>714470593</v>
-      </c>
-      <c r="B2" s="2">
-        <v>757034447</v>
+      <c r="A2" s="1">
+        <v>478463298</v>
+      </c>
+      <c r="B2" s="1">
+        <v>481776958</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>478463298</v>
-      </c>
-      <c r="B3" s="1">
-        <v>481776958</v>
+      <c r="A3" s="2">
+        <v>571135936</v>
+      </c>
+      <c r="B3" s="2">
+        <v>458858518</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>571135936</v>
-      </c>
-      <c r="B4" s="2">
-        <v>458858518</v>
+      <c r="A4" s="1">
+        <v>460447366</v>
+      </c>
+      <c r="B4" s="1">
+        <v>422315105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>460447366</v>
-      </c>
-      <c r="B5" s="1">
-        <v>422315105</v>
+      <c r="A5" s="2">
+        <v>509514516</v>
+      </c>
+      <c r="B5" s="2">
+        <v>447568005</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>509514516</v>
-      </c>
-      <c r="B6" s="2">
-        <v>447568005</v>
+      <c r="A6" s="1">
+        <v>452252605</v>
+      </c>
+      <c r="B6" s="1">
+        <v>455583556</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>452252605</v>
-      </c>
-      <c r="B7" s="1">
-        <v>455583556</v>
+      <c r="A7" s="2">
+        <v>461273524</v>
+      </c>
+      <c r="B7" s="2">
+        <v>438665800</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>461273524</v>
-      </c>
-      <c r="B8" s="2">
-        <v>438665800</v>
+      <c r="A8" s="1">
+        <v>473831200</v>
+      </c>
+      <c r="B8" s="1">
+        <v>481440859</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>473831200</v>
-      </c>
-      <c r="B9" s="1">
-        <v>481440859</v>
+      <c r="A9" s="2">
+        <v>468060008</v>
+      </c>
+      <c r="B9" s="2">
+        <v>458603237</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>468060008</v>
-      </c>
-      <c r="B10" s="2">
-        <v>458603237</v>
+      <c r="A10" s="1">
+        <v>438874624</v>
+      </c>
+      <c r="B10" s="1">
+        <v>512627534</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>438874624</v>
-      </c>
-      <c r="B11" s="1">
-        <v>512627534</v>
+      <c r="A11" s="2">
+        <v>450932143</v>
+      </c>
+      <c r="B11" s="2">
+        <v>465344192</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>450932143</v>
-      </c>
-      <c r="B12" s="2">
-        <v>465344192</v>
+      <c r="A12" s="1">
+        <v>443525933</v>
+      </c>
+      <c r="B12" s="1">
+        <v>419420797</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>443525933</v>
-      </c>
-      <c r="B13" s="1">
-        <v>419420797</v>
+      <c r="A13" s="2">
+        <v>477460485</v>
+      </c>
+      <c r="B13" s="2">
+        <v>464034453</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>477460485</v>
-      </c>
-      <c r="B14" s="2">
-        <v>464034453</v>
+      <c r="A14" s="1">
+        <v>448758641</v>
+      </c>
+      <c r="B14" s="1">
+        <v>423167956</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>448758641</v>
-      </c>
-      <c r="B15" s="1">
-        <v>423167956</v>
+      <c r="A15" s="2">
+        <v>565337630</v>
+      </c>
+      <c r="B15" s="2">
+        <v>457551148</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>565337630</v>
-      </c>
-      <c r="B16" s="2">
-        <v>457551148</v>
+      <c r="A16" s="1">
+        <v>526174428</v>
+      </c>
+      <c r="B16" s="1">
+        <v>518189045</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>526174428</v>
-      </c>
-      <c r="B17" s="1">
-        <v>518189045</v>
+      <c r="A17" s="2">
+        <v>540101269</v>
+      </c>
+      <c r="B17" s="2">
+        <v>487653851</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>540101269</v>
-      </c>
-      <c r="B18" s="2">
-        <v>487653851</v>
+      <c r="A18" s="1">
+        <v>510580602</v>
+      </c>
+      <c r="B18" s="1">
+        <v>531493729</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>510580602</v>
-      </c>
-      <c r="B19" s="1">
-        <v>531493729</v>
+      <c r="A19" s="2">
+        <v>555486828</v>
+      </c>
+      <c r="B19" s="2">
+        <v>533970888</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>555486828</v>
-      </c>
-      <c r="B20" s="2">
-        <v>533970888</v>
+      <c r="A20" s="1">
+        <v>503738689</v>
+      </c>
+      <c r="B20" s="1">
+        <v>501772825</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>503738689</v>
-      </c>
-      <c r="B21" s="1">
-        <v>501772825</v>
+      <c r="A21" s="2">
+        <v>538571127</v>
+      </c>
+      <c r="B21" s="2">
+        <v>499615594</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>538571127</v>
-      </c>
-      <c r="B22" s="2">
-        <v>499615594</v>
+      <c r="A22" s="1">
+        <v>510025713</v>
+      </c>
+      <c r="B22" s="1">
+        <v>527777922</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>510025713</v>
-      </c>
-      <c r="B23" s="1">
-        <v>527777922</v>
+      <c r="A23" s="2">
+        <v>549878534</v>
+      </c>
+      <c r="B23" s="2">
+        <v>531999047</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>549878534</v>
-      </c>
-      <c r="B24" s="2">
-        <v>531999047</v>
+      <c r="A24" s="1">
+        <v>510501239</v>
+      </c>
+      <c r="B24" s="1">
+        <v>498088244</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>510501239</v>
-      </c>
-      <c r="B25" s="1">
-        <v>498088244</v>
+      <c r="A25" s="2">
+        <v>592889082</v>
+      </c>
+      <c r="B25" s="2">
+        <v>531920201</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>592889082</v>
-      </c>
-      <c r="B26" s="2">
-        <v>531920201</v>
+      <c r="A26" s="1">
+        <v>532018466</v>
+      </c>
+      <c r="B26" s="1">
+        <v>500647321</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>532018466</v>
-      </c>
-      <c r="B27" s="1">
-        <v>500647321</v>
+      <c r="A27" s="2">
+        <v>597484427</v>
+      </c>
+      <c r="B27" s="2">
+        <v>530290378</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>597484427</v>
-      </c>
-      <c r="B28" s="2">
-        <v>530290378</v>
+      <c r="A28" s="1">
+        <v>500882124</v>
+      </c>
+      <c r="B28" s="1">
+        <v>536954241</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>500882124</v>
-      </c>
-      <c r="B29" s="1">
-        <v>536954241</v>
+      <c r="A29" s="2">
+        <v>539881998</v>
+      </c>
+      <c r="B29" s="2">
+        <v>500855824</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>539881998</v>
-      </c>
-      <c r="B30" s="2">
-        <v>500855824</v>
+      <c r="A30" s="1">
+        <v>532639812</v>
+      </c>
+      <c r="B30" s="1">
+        <v>502126280</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>532639812</v>
-      </c>
-      <c r="B31" s="1">
-        <v>502126280</v>
+      <c r="A31" s="2">
+        <v>492480078</v>
+      </c>
+      <c r="B31" s="2">
+        <v>505639272</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>492480078</v>
-      </c>
-      <c r="B32" s="2">
-        <v>505639272</v>
+      <c r="A32" s="1">
+        <v>524609451</v>
+      </c>
+      <c r="B32" s="1">
+        <v>519806452</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>524609451</v>
-      </c>
-      <c r="B33" s="1">
-        <v>519806452</v>
+      <c r="A33" s="2">
+        <v>552153674</v>
+      </c>
+      <c r="B33" s="2">
+        <v>528797756</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>552153674</v>
-      </c>
-      <c r="B34" s="2">
-        <v>528797756</v>
+      <c r="A34" s="1">
+        <v>524445390</v>
+      </c>
+      <c r="B34" s="1">
+        <v>511280357</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>524445390</v>
-      </c>
-      <c r="B35" s="1">
-        <v>511280357</v>
+      <c r="A35" s="2">
+        <v>541541110</v>
+      </c>
+      <c r="B35" s="2">
+        <v>497821509</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>541541110</v>
-      </c>
-      <c r="B36" s="2">
-        <v>497821509</v>
+      <c r="A36" s="1">
+        <v>512310512</v>
+      </c>
+      <c r="B36" s="1">
+        <v>493694155</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>512310512</v>
-      </c>
-      <c r="B37" s="1">
-        <v>493694155</v>
+      <c r="A37" s="2">
+        <v>518256770</v>
+      </c>
+      <c r="B37" s="2">
+        <v>528484511</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>518256770</v>
-      </c>
-      <c r="B38" s="2">
-        <v>528484511</v>
+      <c r="A38" s="1">
+        <v>554249794</v>
+      </c>
+      <c r="B38" s="1">
+        <v>497719805</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>554249794</v>
-      </c>
-      <c r="B39" s="1">
-        <v>497719805</v>
+      <c r="A39" s="2">
+        <v>543277384</v>
+      </c>
+      <c r="B39" s="2">
+        <v>567810733</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>543277384</v>
-      </c>
-      <c r="B40" s="2">
-        <v>567810733</v>
+      <c r="A40" s="1">
+        <v>572590936</v>
+      </c>
+      <c r="B40" s="1">
+        <v>513690249</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>572590936</v>
-      </c>
-      <c r="B41" s="1">
-        <v>513690249</v>
+      <c r="A41" s="2">
+        <v>552912734</v>
+      </c>
+      <c r="B41" s="2">
+        <v>531262518</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>552912734</v>
-      </c>
-      <c r="B42" s="2">
-        <v>531262518</v>
+      <c r="A42" s="1">
+        <v>527608089</v>
+      </c>
+      <c r="B42" s="1">
+        <v>505104472</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>527608089</v>
-      </c>
-      <c r="B43" s="1">
-        <v>505104472</v>
+      <c r="A43" s="2">
+        <v>617582064</v>
+      </c>
+      <c r="B43" s="2">
+        <v>522822450</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>617582064</v>
-      </c>
-      <c r="B44" s="2">
-        <v>522822450</v>
+      <c r="A44" s="1">
+        <v>605618218</v>
+      </c>
+      <c r="B44" s="1">
+        <v>534137714</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>605618218</v>
-      </c>
-      <c r="B45" s="1">
-        <v>534137714</v>
+      <c r="A45" s="2">
+        <v>542739135</v>
+      </c>
+      <c r="B45" s="2">
+        <v>496366730</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>542739135</v>
-      </c>
-      <c r="B46" s="2">
-        <v>496366730</v>
+      <c r="A46" s="1">
+        <v>504217786</v>
+      </c>
+      <c r="B46" s="1">
+        <v>532893489</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>504217786</v>
-      </c>
-      <c r="B47" s="1">
-        <v>532893489</v>
+      <c r="A47" s="2">
+        <v>529931665</v>
+      </c>
+      <c r="B47" s="2">
+        <v>529596945</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>529931665</v>
-      </c>
-      <c r="B48" s="2">
-        <v>529596945</v>
+      <c r="A48" s="1">
+        <v>522622128</v>
+      </c>
+      <c r="B48" s="1">
+        <v>522365148</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>522622128</v>
-      </c>
-      <c r="B49" s="1">
-        <v>522365148</v>
+      <c r="A49" s="2">
+        <v>536102777</v>
+      </c>
+      <c r="B49" s="2">
+        <v>501473774</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>536102777</v>
-      </c>
-      <c r="B50" s="2">
-        <v>501473774</v>
+      <c r="A50" s="1">
+        <v>552927859</v>
+      </c>
+      <c r="B50" s="1">
+        <v>496315807</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>552927859</v>
-      </c>
-      <c r="B51" s="1">
-        <v>496315807</v>
+      <c r="A51" s="2">
+        <v>503732364</v>
+      </c>
+      <c r="B51" s="2">
+        <v>666577957</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>503732364</v>
-      </c>
-      <c r="B52" s="2">
-        <v>666577957</v>
+      <c r="A52" s="1">
+        <v>523250620</v>
+      </c>
+      <c r="B52" s="1">
+        <v>512829880</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>523250620</v>
-      </c>
-      <c r="B53" s="1">
-        <v>512829880</v>
+      <c r="A53" s="2">
+        <v>553996244</v>
+      </c>
+      <c r="B53" s="2">
+        <v>495777500</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>553996244</v>
-      </c>
-      <c r="B54" s="2">
-        <v>495777500</v>
+      <c r="A54" s="1">
+        <v>538671701</v>
+      </c>
+      <c r="B54" s="1">
+        <v>499984518</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>538671701</v>
-      </c>
-      <c r="B55" s="1">
-        <v>499984518</v>
+      <c r="A55" s="2">
+        <v>538460901</v>
+      </c>
+      <c r="B55" s="2">
+        <v>529503846</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>538460901</v>
-      </c>
-      <c r="B56" s="2">
-        <v>529503846</v>
+      <c r="A56" s="1">
+        <v>504830668</v>
+      </c>
+      <c r="B56" s="1">
+        <v>515830565</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>504830668</v>
-      </c>
-      <c r="B57" s="1">
-        <v>515830565</v>
+      <c r="A57" s="2">
+        <v>535922199</v>
+      </c>
+      <c r="B57" s="2">
+        <v>552477129</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>535922199</v>
-      </c>
-      <c r="B58" s="2">
-        <v>552477129</v>
+      <c r="A58" s="1">
+        <v>516566842</v>
+      </c>
+      <c r="B58" s="1">
+        <v>501218343</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>516566842</v>
-      </c>
-      <c r="B59" s="1">
-        <v>501218343</v>
+      <c r="A59" s="2">
+        <v>511710176</v>
+      </c>
+      <c r="B59" s="2">
+        <v>517710440</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>511710176</v>
-      </c>
-      <c r="B60" s="2">
-        <v>517710440</v>
+      <c r="A60" s="1">
+        <v>534597686</v>
+      </c>
+      <c r="B60" s="1">
+        <v>528339831</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>534597686</v>
-      </c>
-      <c r="B61" s="1">
-        <v>528339831</v>
+      <c r="A61" s="2">
+        <v>561001302</v>
+      </c>
+      <c r="B61" s="2">
+        <v>495097034</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>561001302</v>
-      </c>
-      <c r="B62" s="2">
-        <v>495097034</v>
+      <c r="A62" s="1">
+        <v>522854681</v>
+      </c>
+      <c r="B62" s="1">
+        <v>505303400</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>522854681</v>
-      </c>
-      <c r="B63" s="1">
-        <v>505303400</v>
+      <c r="A63" s="2">
+        <v>510670715</v>
+      </c>
+      <c r="B63" s="2">
+        <v>508196881</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>510670715</v>
-      </c>
-      <c r="B64" s="2">
-        <v>508196881</v>
+      <c r="A64" s="1">
+        <v>601160494</v>
+      </c>
+      <c r="B64" s="1">
+        <v>522565423</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>601160494</v>
-      </c>
-      <c r="B65" s="1">
-        <v>522565423</v>
+      <c r="A65" s="2">
+        <v>575328761</v>
+      </c>
+      <c r="B65" s="2">
+        <v>533624638</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>575328761</v>
-      </c>
-      <c r="B66" s="2">
-        <v>533624638</v>
+      <c r="A66" s="1">
+        <v>509297943</v>
+      </c>
+      <c r="B66" s="1">
+        <v>511420786</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>509297943</v>
-      </c>
-      <c r="B67" s="1">
-        <v>511420786</v>
+      <c r="A67" s="2">
+        <v>539636365</v>
+      </c>
+      <c r="B67" s="2">
+        <v>536590348</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>539636365</v>
-      </c>
-      <c r="B68" s="2">
-        <v>536590348</v>
+      <c r="A68" s="1">
+        <v>511066041</v>
+      </c>
+      <c r="B68" s="1">
+        <v>496126422</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>511066041</v>
-      </c>
-      <c r="B69" s="1">
-        <v>496126422</v>
+      <c r="A69" s="2">
+        <v>569303317</v>
+      </c>
+      <c r="B69" s="2">
+        <v>531806025</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>569303317</v>
-      </c>
-      <c r="B70" s="2">
-        <v>531806025</v>
+      <c r="A70" s="1">
+        <v>511234353</v>
+      </c>
+      <c r="B70" s="1">
+        <v>495914713</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>511234353</v>
-      </c>
-      <c r="B71" s="1">
-        <v>495914713</v>
+      <c r="A71" s="2">
+        <v>512848380</v>
+      </c>
+      <c r="B71" s="2">
+        <v>509895180</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>512848380</v>
-      </c>
-      <c r="B72" s="2">
-        <v>509895180</v>
+      <c r="A72" s="1">
+        <v>531718959</v>
+      </c>
+      <c r="B72" s="1">
+        <v>539566156</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>531718959</v>
-      </c>
-      <c r="B73" s="1">
-        <v>539566156</v>
+      <c r="A73" s="2">
+        <v>513697240</v>
+      </c>
+      <c r="B73" s="2">
+        <v>504912087</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>513697240</v>
-      </c>
-      <c r="B74" s="2">
-        <v>504912087</v>
+      <c r="A74" s="1">
+        <v>614311751</v>
+      </c>
+      <c r="B74" s="1">
+        <v>501958674</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>614311751</v>
-      </c>
-      <c r="B75" s="1">
-        <v>501958674</v>
+      <c r="A75" s="2">
+        <v>544858308</v>
+      </c>
+      <c r="B75" s="2">
+        <v>495328904</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>544858308</v>
-      </c>
-      <c r="B76" s="2">
-        <v>495328904</v>
+      <c r="A76" s="1">
+        <v>508227225</v>
+      </c>
+      <c r="B76" s="1">
+        <v>664319479</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>508227225</v>
-      </c>
-      <c r="B77" s="1">
-        <v>664319479</v>
+      <c r="A77" s="2">
+        <v>550289101</v>
+      </c>
+      <c r="B77" s="2">
+        <v>513218324</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>550289101</v>
-      </c>
-      <c r="B78" s="2">
-        <v>513218324</v>
+      <c r="A78" s="1">
+        <v>547040191</v>
+      </c>
+      <c r="B78" s="1">
+        <v>504748884</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>547040191</v>
-      </c>
-      <c r="B79" s="1">
-        <v>504748884</v>
+      <c r="A79" s="2">
+        <v>536738370</v>
+      </c>
+      <c r="B79" s="2">
+        <v>527810522</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>536738370</v>
-      </c>
-      <c r="B80" s="2">
-        <v>527810522</v>
+      <c r="A80" s="3">
+        <f>AVERAGE(A2:A79)</f>
+        <v>526947726.91025639</v>
+      </c>
+      <c r="B80" s="3">
+        <f>AVERAGE(B2:B79)</f>
+        <v>508667323.62820512</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f>_xlfn.STDEV.P(A2:A79)</f>
+        <v>38459030.151660331</v>
+      </c>
+      <c r="B81" s="4">
+        <f>_xlfn.STDEV.P(B2:B79)</f>
+        <v>38633398.258298144</v>
       </c>
     </row>
   </sheetData>
